--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>602499.0577132639</v>
+        <v>628441.0539742577</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7751331.62285438</v>
+        <v>7789210.413465149</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>179.3677409161184</v>
+        <v>286.153328222781</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.85899356878446</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>103.1245305025419</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,7 +874,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>51.85622704831127</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>53.93945200553801</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>368.9663481998527</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>23.47132526561363</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,19 +1291,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>215.6798345659773</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>386.4154214636324</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>132.7957673084547</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>69.4540573175256</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>132.7957673084551</v>
+        <v>132.7957673084565</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904381</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>280.9390873188493</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>422.7926164890741</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948857</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>216.0237438655888</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2008,13 +2008,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>209.5477579312042</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>157.8824880649885</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2087,10 +2087,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>379.7050409934924</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948852</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>229.7552611298614</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>128.777869115097</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2299,10 +2299,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>46.16917954999339</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2479,19 +2479,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>61.06386613909906</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571962</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>152.5168019860611</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>16.92574903168972</v>
       </c>
     </row>
     <row r="32">
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>280.9390873188498</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>34.7181121725792</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3266,7 +3266,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884121</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855482</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3569,7 +3569,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633422</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3664,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>124.0599116349196</v>
       </c>
       <c r="E40" t="n">
-        <v>7.26460296736268</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3803,7 +3803,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864815</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>69.45405731752514</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3958,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068458</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112161</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4141,7 +4141,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>27.33721772847653</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.4987273237359</v>
+        <v>1117.169145538672</v>
       </c>
       <c r="C2" t="n">
-        <v>810.3191910448285</v>
+        <v>828.125379657075</v>
       </c>
       <c r="D2" t="n">
-        <v>778.4498102596771</v>
+        <v>796.2559988719236</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>362.4812540302188</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.52407392304683</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311667</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.71137679769</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756285</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693179</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693179</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2371.712353693179</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>2371.712353693179</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>1966.856899104212</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.003613428182</v>
+        <v>1547.714435683522</v>
       </c>
       <c r="Y2" t="n">
-        <v>1013.75789376824</v>
+        <v>1139.428311983176</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021826</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1191.839749858468</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005021</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1002.629046331975</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481366</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>833.8601182143204</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305329</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>818.1881391909905</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1142.746464157203</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1142.746464157203</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1142.746464157203</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474365</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474365</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1189.749864474365</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782927</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449415002</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957725</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288327</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288295</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350294</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.953327083488</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322368</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.600112101589</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1062.573633839615</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>890.0119223228404</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>724.1339295243631</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>619.9677370975531</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.669408085137</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213224</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>742.0756208892834</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.487540453623</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423965</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2296.122858807338</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2050.243412385793</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1771.810411638899</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1771.810411638899</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740719</v>
+        <v>1499.78400722519</v>
       </c>
       <c r="X4" t="n">
-        <v>347.0794944074844</v>
+        <v>1254.392252558603</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.6598237215927</v>
+        <v>1254.392252558603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.160498707152</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1216.160498707152</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1216.160498707152</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1216.160498707152</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.3855594523341</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>930.2834906761614</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3737058506059</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>464.6393650493051</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>304.284604275296</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743924</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873489</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172585</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1814.888363566437</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1814.888363566437</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1814.888363566437</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1814.888363566437</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1410.03290897747</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.930849597185</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y8" t="n">
-        <v>986.6447258968378</v>
+        <v>1758.165314945666</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5299392077756</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>206.5299392077756</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>206.5299392077756</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>36.77193545851284</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851284</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851284</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.5303900296484</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>729.7402717976095</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1184.792973096706</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1184.792973096706</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1604.462222322487</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631014</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929011</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507466</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760571</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1133.625135760571</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>861.5987313468627</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>616.2069766802751</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3485579267627</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2511.87917085155</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2073.736698034974</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1637.826913209418</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1204.052168367713</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>776.1847387769212</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2938.178741336458</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.134188067672</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>914.5724765508968</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>748.6944837524195</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>578.9364800031567</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>402.2294259649129</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2643.239973131868</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2397.360526710324</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.927525963429</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.97201783386</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.945613420151</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1314.553858753564</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1087.134188067672</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397514</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L14" t="n">
-        <v>1171.795942933974</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M14" t="n">
-        <v>1356.079523257015</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,13 +5306,13 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
         <v>3777.103341668068</v>
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.027821717705</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.027821717705</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.027821717705</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.027821717705</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.027821717705</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580465</v>
+        <v>806.2298140987269</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>633.6681025819519</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>467.7901097834746</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935314</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2691.977765289286</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.098318867741</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.665318120847</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>998.048432817714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2511.87917085155</v>
+        <v>2522.958394689266</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2084.815921872689</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1648.906137047134</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.131392205429</v>
       </c>
       <c r="F17" t="n">
         <v>787.263962614635</v>
@@ -5507,58 +5507,58 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>403.24618372937</v>
       </c>
       <c r="K17" t="n">
-        <v>1186.925458503958</v>
+        <v>1237.596475687548</v>
       </c>
       <c r="L17" t="n">
-        <v>1186.925458503958</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503958</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928799</v>
       </c>
       <c r="U17" t="n">
-        <v>4533.079733112634</v>
+        <v>4357.509304245816</v>
       </c>
       <c r="V17" t="n">
-        <v>4170.462783046461</v>
+        <v>3994.892354179642</v>
       </c>
       <c r="W17" t="n">
-        <v>3765.607328457494</v>
+        <v>3776.686552295209</v>
       </c>
       <c r="X17" t="n">
-        <v>3346.464865036805</v>
+        <v>3357.54408887452</v>
       </c>
       <c r="Y17" t="n">
-        <v>2938.178741336458</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K18" t="n">
         <v>1102.064021433509</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>840.4448585695617</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>667.8831470527866</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777443</v>
+        <v>502.0051542543094</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>502.0051542543094</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>325.2981002160654</v>
       </c>
       <c r="G19" t="n">
         <v>325.2981002160653</v>
@@ -5668,10 +5668,10 @@
         <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2342.489815931201</v>
       </c>
       <c r="U19" t="n">
-        <v>2286.856950165738</v>
+        <v>2064.056815184306</v>
       </c>
       <c r="V19" t="n">
-        <v>1999.901442036168</v>
+        <v>1777.101307054737</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1505.074902641028</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1259.683147974441</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1032.263477288549</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062125</v>
+        <v>2472.724095295532</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245549</v>
+        <v>2034.581622478955</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419993</v>
+        <v>1598.6718376534</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>3541.913785866256</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>4667.644769302702</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="O20" t="n">
-        <v>4667.644769302702</v>
+        <v>3461.99017326377</v>
       </c>
       <c r="P20" t="n">
-        <v>4667.644769302702</v>
+        <v>4290.300048097166</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928797</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245814</v>
+        <v>4493.924657556614</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.89235417964</v>
+        <v>4131.30770749044</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590674</v>
+        <v>3726.452252901474</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.96087824738</v>
+        <v>3307.309789480785</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547033</v>
+        <v>2899.023665780439</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1051.621568765315</v>
+        <v>1010.202862318824</v>
       </c>
       <c r="C22" t="n">
-        <v>879.0598572485396</v>
+        <v>837.6411508020492</v>
       </c>
       <c r="D22" t="n">
-        <v>713.1818644500623</v>
+        <v>671.7631580035718</v>
       </c>
       <c r="E22" t="n">
-        <v>543.4238607007997</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F22" t="n">
-        <v>366.7168066625559</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713471</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1674.832906390291</v>
       </c>
       <c r="X22" t="n">
-        <v>1470.859858170194</v>
+        <v>1429.441151723703</v>
       </c>
       <c r="Y22" t="n">
-        <v>1243.440187484302</v>
+        <v>1202.021481037811</v>
       </c>
     </row>
     <row r="23">
@@ -6063,10 +6063,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.754677688392</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716169</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>639.1929661716169</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>469.4349624223543</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1162.814665109382</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709349</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.557290287539</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
         <v>780.1951658309357</v>
@@ -7120,13 +7120,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
         <v>1889.413325832886</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.336856393764</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C40" t="n">
-        <v>617.775144876989</v>
+        <v>798.4343348736202</v>
       </c>
       <c r="D40" t="n">
-        <v>451.8971520785116</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.966900465231</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127512</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004233</v>
@@ -7409,28 +7409,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7445,10 +7445,10 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1162.814665109382</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>990.2529535926074</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>824.3749607941301</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>654.6169570448674</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>477.909903006623</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>312.3186280324507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>172.4164537228252</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7646,28 +7646,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7685,13 +7685,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1039.174348374284</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>866.6126368575086</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D46" t="n">
-        <v>700.7346440590313</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1230.992967093271</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804199</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854725</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281351237</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866497</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314107</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>236.4995460637929</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294876</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,16 +8927,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>186.1450306293339</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>309.606269745711</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.606269745712</v>
       </c>
       <c r="K17" t="n">
-        <v>661.550297343359</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1111.629155071904</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,7 +9887,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,13 +10355,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>583.0591140826364</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>10.96843159933633</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>268.0111327346222</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>88.19489769745771</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>268.0111327346219</v>
+        <v>268.0111327346205</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3.146865729424519</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>10.96843159933678</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,19 +23780,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>184.7831561774882</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>33.87289402612507</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>49.73195639979537</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>185.195777656621</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.15749310933359</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>223.136960819578</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8761173587623</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>18.31929241554619</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>3.146865729424064</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.2197249473425</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.15930123557298</v>
       </c>
       <c r="E40" t="n">
-        <v>160.7958207444074</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>18.31929241554627</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>653362.2974460769</v>
+        <v>665025.4156281017</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>653362.2974460769</v>
+        <v>668328.0999152777</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655537.6631843178</v>
+        <v>668328.0999152777</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658720.6947843051</v>
+        <v>658720.6947843052</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658720.6947843052</v>
+        <v>658720.6947843053</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658720.6947843051</v>
+        <v>658720.6947843054</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686519.4608362153</v>
+        <v>686519.4608362154</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>686519.4608362155</v>
+        <v>686519.4608362154</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>686519.4608362154</v>
+        <v>686519.4608362153</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="E2" t="n">
-        <v>303314.3387830057</v>
+        <v>303314.3387830058</v>
       </c>
       <c r="F2" t="n">
-        <v>303314.3387830057</v>
+        <v>303314.3387830058</v>
       </c>
       <c r="G2" t="n">
         <v>303314.3387830058</v>
       </c>
       <c r="H2" t="n">
-        <v>303314.3387830058</v>
+        <v>303314.338783006</v>
       </c>
       <c r="I2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824112</v>
       </c>
       <c r="J2" t="n">
         <v>316114.5504824112</v>
@@ -26344,10 +26344,10 @@
         <v>316114.5504824112</v>
       </c>
       <c r="M2" t="n">
+        <v>316114.5504824113</v>
+      </c>
+      <c r="N2" t="n">
         <v>316114.5504824112</v>
-      </c>
-      <c r="N2" t="n">
-        <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
         <v>316114.5504824113</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390631</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.342902074557548e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.7156328394</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784487</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.342902074557548e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>174244.3817256394</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>200045.3005001107</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804608</v>
+        <v>78141.89423804611</v>
       </c>
       <c r="F4" t="n">
         <v>78141.89423804611</v>
       </c>
       <c r="G4" t="n">
-        <v>78141.89423804611</v>
+        <v>78141.89423804606</v>
       </c>
       <c r="H4" t="n">
-        <v>78141.89423804605</v>
+        <v>78141.89423804612</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
@@ -26448,13 +26448,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904287</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904289</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="P4" t="n">
         <v>81439.57146904283</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814198</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,7 +26503,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85888.66970455408</v>
+        <v>-129217.3825534396</v>
       </c>
       <c r="C6" t="n">
-        <v>56302.63095515606</v>
+        <v>64872.23473902255</v>
       </c>
       <c r="D6" t="n">
-        <v>49087.01381366159</v>
+        <v>82212.77911292888</v>
       </c>
       <c r="E6" t="n">
-        <v>-72146.1914847148</v>
+        <v>-10158.53149759901</v>
       </c>
       <c r="F6" t="n">
-        <v>151653.1022673121</v>
+        <v>151576.5437125154</v>
       </c>
       <c r="G6" t="n">
-        <v>151653.1022673121</v>
+        <v>151576.5437125154</v>
       </c>
       <c r="H6" t="n">
-        <v>151653.1022673122</v>
+        <v>151576.5437125154</v>
       </c>
       <c r="I6" t="n">
-        <v>138592.0247747364</v>
+        <v>138568.8004353538</v>
       </c>
       <c r="J6" t="n">
-        <v>45942.27506258567</v>
+        <v>-3674.31341742032</v>
       </c>
       <c r="K6" t="n">
-        <v>156956.7404075759</v>
+        <v>143119.5075003484</v>
       </c>
       <c r="L6" t="n">
-        <v>148009.1293190657</v>
+        <v>156933.5160681933</v>
       </c>
       <c r="M6" t="n">
-        <v>-29834.24620289147</v>
+        <v>21943.57145518991</v>
       </c>
       <c r="N6" t="n">
-        <v>156956.740407576</v>
+        <v>156933.5160681932</v>
       </c>
       <c r="O6" t="n">
-        <v>156956.740407576</v>
+        <v>156933.5160681934</v>
       </c>
       <c r="P6" t="n">
-        <v>156956.740407576</v>
+        <v>156933.5160681934</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.178627593196935e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.178627593196935e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.178627593196935e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>254.3933071722926</v>
+        <v>147.6077198656299</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.0414389630128</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>64.93589320922825</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>221.7092187338877</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>53.070226580206</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>59.34402981238773</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,10 +27913,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.465639413055527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.168426311850774e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804199</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854725</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281351237</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866497</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314107</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>236.4995460637929</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294876</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>186.1450306293339</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>309.606269745711</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.606269745712</v>
       </c>
       <c r="K17" t="n">
-        <v>661.550297343359</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1111.629155071904</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807414</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36604,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>583.0591140826364</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
